--- a/日志/results.xlsx
+++ b/日志/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jumpycat\Desktop\00-YunshuDai\00-Similarity\日志\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C2C949-ED39-4BD1-977B-9AF843C32FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA5EE4B-84F2-44D5-AC5C-8FDE1ED9B999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26304" yWindow="3456" windowWidth="21600" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>跨库测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,83 +47,501 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TYPE-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.8997(0.876 by F2F)
-0.9563(0.928 by F2F)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.9953(0.876 by F2F)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.7144(0.876 by F2F)
-0.7825(0.941 by FS)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.8919(0.876 by F2F)
-0.9359(0.916 by FS)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6459(0.854 by FS)
-0.8456(0.927 by DF)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.9969(0.854 by FS)</t>
-  </si>
-  <si>
-    <t>0.6547(0.93 by NT)
-0.6569(0.923 by FS)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.9915(0.93 by NT)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.9388(0.950 by DF)
-0.9400(0.945 by F2F)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5288(0.950 by DF)
-0.5453(0.983 by FS)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.9456(0.950 by DF)
-0.9550(0.955 by NT)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.7253(0.854 by FS)
-0.8825(0.920 by NT)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.8784(0.854 by FS)
-0.9553(0.910 by F2F)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.9681(0.930 by NT)
-0.9756(0.909 by DF)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.9500(0.930 by NT)
-0.9575(0.915 by F2F)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.9922(0.950 by DF)
-0.9953(resnet18)</t>
+    <t>TYPE-1
+resnet18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          测试集
+ 训练集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{精度}(baseline 模型)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{精度}(测试集对应验证集计算到的阈值)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{精度}(训练集类别对应验证集计算到的阈值)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">99.59(0.970)       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+1.12</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">68.94(0.878)      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> +17.16</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">96.63(0.964)       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+44.85</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">53.38(0.904)       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+5.41</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">79.34(0.989)       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+31.37</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">80.84(0.913)       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+15.25</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">94.03(0.958)       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+28.34</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">74.81(0.970)       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+19.56</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">91.88(0.996)       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+36.63</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">98.94(0.878)        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> +2.35</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">74.63(0.904)       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+22.85</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">91.06(0.967)       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+39.28</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">78.56(0.913)       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+10.75</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">89.88(0.974)       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+22.07</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">52.41(0.999)         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+1.60</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">52.06(0.878)         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+2.62</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">74.44(0.992)         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+25</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">99.78(0.904)         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+4.69</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">90.84(0.970)         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+34.71</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">95.50(0.992)         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+39.37</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">68.94(0.878)        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> +16.75</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">92.84(0.96)           </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+40.65</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">59.88(0.904)         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+8.41</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">98.47(0.913)         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+5.91</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">79.56(0.980)         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+28.09</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">50.69(0.970)        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-0.12</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">50.13(0.913)         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-3.71</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">50.59(0.934)        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-3.25</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -131,7 +549,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,20 +598,54 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="华文宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF00B050"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF00B050"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,30 +666,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF7C80"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -245,11 +685,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="medium">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -257,38 +724,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -298,6 +804,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFA6262"/>
+      <color rgb="FFF94141"/>
       <color rgb="FFFFCCCC"/>
       <color rgb="FFFF7C80"/>
     </mruColors>
@@ -578,29 +1086,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="11.25" style="1" customWidth="1"/>
-    <col min="7" max="10" width="23.875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="14" style="1" customWidth="1"/>
+    <col min="7" max="9" width="23.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="66.875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="3" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:23" s="4" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -620,20 +1132,20 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" spans="1:23" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="5" t="s">
+    <row r="3" spans="1:23" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K3" s="2"/>
@@ -650,327 +1162,203 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="5" t="s">
+    <row r="4" spans="1:23" s="8" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" s="8" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="13"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" s="8" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="18"/>
+      <c r="G6" s="22">
+        <v>98.47</v>
+      </c>
+      <c r="H6" s="20">
+        <v>55.25</v>
+      </c>
+      <c r="I6" s="20">
+        <v>50.81</v>
+      </c>
+      <c r="J6" s="20">
+        <v>56.13</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="8" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="F7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="1:23" s="8" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="13"/>
+      <c r="G8" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="1:23" s="8" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="13"/>
+      <c r="G9" s="19">
+        <v>51.78</v>
+      </c>
+      <c r="H9" s="23">
+        <v>96.59</v>
+      </c>
+      <c r="I9" s="19">
+        <v>49.44</v>
+      </c>
+      <c r="J9" s="19">
+        <v>52.19</v>
+      </c>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="1:23" s="8" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="F10" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="1:23" s="8" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F11" s="13"/>
+      <c r="G11" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="9" t="s">
+      <c r="I11" s="25"/>
+      <c r="J11" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="1:23" s="8" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="18"/>
+      <c r="G12" s="20">
+        <v>47.97</v>
+      </c>
+      <c r="H12" s="20">
+        <v>51.78</v>
+      </c>
+      <c r="I12" s="22">
+        <v>95.09</v>
+      </c>
+      <c r="J12" s="20">
+        <v>51.47</v>
+      </c>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="1:23" s="8" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="F13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="H13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:23" s="8" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G14" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-    </row>
-    <row r="5" spans="1:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-    </row>
-    <row r="6" spans="1:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-    </row>
-    <row r="7" spans="1:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="H14" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="26"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:23" s="8" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G15" s="21">
+        <v>65.59</v>
+      </c>
+      <c r="H15" s="21">
+        <v>67.81</v>
+      </c>
+      <c r="I15" s="21">
+        <v>53.84</v>
+      </c>
+      <c r="J15" s="24">
+        <v>92.56</v>
+      </c>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:23" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -995,7 +1383,7 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1020,7 +1408,7 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1045,7 +1433,7 @@
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1070,7 +1458,7 @@
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1095,7 +1483,7 @@
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1120,7 +1508,7 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1145,7 +1533,7 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1170,7 +1558,7 @@
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1195,7 +1583,7 @@
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1220,7 +1608,7 @@
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1446,8 +1834,11 @@
       <c r="W34" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="F10:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/日志/results.xlsx
+++ b/日志/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jumpycat\Desktop\00-YunshuDai\00-Similarity\日志\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA5EE4B-84F2-44D5-AC5C-8FDE1ED9B999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34469A32-B451-4BBF-933B-812E6EA94C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,10 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
-    <t>跨库测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -57,18 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{精度}(baseline 模型)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{精度}(测试集对应验证集计算到的阈值)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{精度}(训练集类别对应验证集计算到的阈值)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">99.59(0.970)       </t>
     </r>
@@ -399,22 +383,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">68.94(0.878)        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> +16.75</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">92.84(0.96)           </t>
     </r>
     <r>
@@ -542,6 +510,40 @@
       </rPr>
       <t>-3.25</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{精度}(训练集类别对应验证集计算得到的阈值)
+{精度}(测试集类别对应验证集计算得到的阈值)
+{精度}(baseline 模型)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">69.41(0.878)        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> +17.22</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8670</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跨库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -549,7 +551,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -644,6 +646,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -716,7 +725,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -727,74 +736,83 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1087,12 +1105,14 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="9" style="1"/>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="6.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" customWidth="1"/>
     <col min="7" max="9" width="23.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="25.125" style="1" customWidth="1"/>
@@ -1100,9 +1120,9 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="4" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
+    <row r="1" spans="1:23" s="21" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1110,9 +1130,6 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1133,22 +1150,27 @@
       <c r="W2" s="2"/>
     </row>
     <row r="3" spans="1:23" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="7" t="s">
-        <v>6</v>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="2"/>
+      <c r="K3" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1162,214 +1184,240 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:23" s="8" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="15" t="s">
+    <row r="4" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="29">
+        <v>72.11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="24"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="27">
+        <v>79.930000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="24"/>
+      <c r="G6" s="22">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H6" s="22">
+        <v>0.97409999999999997</v>
+      </c>
+      <c r="I6" s="22">
+        <v>0.54710000000000003</v>
+      </c>
+      <c r="J6" s="22">
+        <v>0.98270000000000002</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0.87590000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="25"/>
+      <c r="G7" s="16">
+        <v>98.47</v>
+      </c>
+      <c r="H7" s="14">
+        <v>55.25</v>
+      </c>
+      <c r="I7" s="14">
+        <v>50.81</v>
+      </c>
+      <c r="J7" s="14">
+        <v>56.13</v>
+      </c>
+      <c r="K7" s="27"/>
+    </row>
+    <row r="8" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="27">
+        <v>63.47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F9" s="24"/>
+      <c r="G9" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="27">
+        <v>87.97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F10" s="24"/>
+      <c r="G10" s="8">
+        <v>0.99350000000000005</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0.99070000000000003</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0.84240000000000004</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0.94930000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="25"/>
+      <c r="G11" s="13">
+        <v>51.78</v>
+      </c>
+      <c r="H11" s="17">
+        <v>96.59</v>
+      </c>
+      <c r="I11" s="13">
+        <v>49.44</v>
+      </c>
+      <c r="J11" s="13">
+        <v>52.19</v>
+      </c>
+      <c r="K11" s="27"/>
+    </row>
+    <row r="12" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="27">
+        <v>62.63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F13" s="26"/>
+      <c r="G13" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I13" s="19"/>
+      <c r="J13" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="27">
+        <v>83.32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F14" s="26"/>
+      <c r="G14" s="8">
+        <v>0.86319999999999997</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0.95709999999999995</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0.98870000000000002</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="27"/>
+    </row>
+    <row r="15" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="25"/>
+      <c r="G15" s="14">
+        <v>47.97</v>
+      </c>
+      <c r="H15" s="14">
+        <v>51.78</v>
+      </c>
+      <c r="I15" s="16">
+        <v>95.09</v>
+      </c>
+      <c r="J15" s="14">
+        <v>51.47</v>
+      </c>
+      <c r="K15" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" s="8" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="13"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" s="8" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F6" s="18"/>
-      <c r="G6" s="22">
-        <v>98.47</v>
-      </c>
-      <c r="H6" s="20">
-        <v>55.25</v>
-      </c>
-      <c r="I6" s="20">
-        <v>50.81</v>
-      </c>
-      <c r="J6" s="20">
-        <v>56.13</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" s="8" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="F7" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" spans="1:23" s="8" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F8" s="13"/>
-      <c r="G8" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="1:23" s="8" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F9" s="13"/>
-      <c r="G9" s="19">
-        <v>51.78</v>
-      </c>
-      <c r="H9" s="23">
-        <v>96.59</v>
-      </c>
-      <c r="I9" s="19">
-        <v>49.44</v>
-      </c>
-      <c r="J9" s="19">
-        <v>52.19</v>
-      </c>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10" spans="1:23" s="8" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="F10" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="10"/>
-    </row>
-    <row r="11" spans="1:23" s="8" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F11" s="13"/>
-      <c r="G11" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="12" spans="1:23" s="8" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F12" s="18"/>
-      <c r="G12" s="20">
-        <v>47.97</v>
-      </c>
-      <c r="H12" s="20">
-        <v>51.78</v>
-      </c>
-      <c r="I12" s="22">
-        <v>95.09</v>
-      </c>
-      <c r="J12" s="20">
-        <v>51.47</v>
-      </c>
-      <c r="K12" s="10"/>
-    </row>
-    <row r="13" spans="1:23" s="8" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="F13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="1:23" s="8" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G14" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="J14" s="26"/>
-      <c r="K14" s="10"/>
-    </row>
-    <row r="15" spans="1:23" s="8" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G15" s="21">
-        <v>65.59</v>
-      </c>
-      <c r="H15" s="21">
-        <v>67.81</v>
-      </c>
-      <c r="I15" s="21">
-        <v>53.84</v>
-      </c>
-      <c r="J15" s="24">
-        <v>92.56</v>
-      </c>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="1:23" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:23" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="F16" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="27">
+        <v>69.84</v>
+      </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -1383,18 +1431,26 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
     </row>
-    <row r="17" spans="1:23" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="20"/>
+      <c r="K17" s="27">
+        <v>78.17</v>
+      </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1408,18 +1464,28 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
     </row>
-    <row r="18" spans="1:23" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="8">
+        <v>0.9819</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0.95920000000000005</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0.51780000000000004</v>
+      </c>
+      <c r="J18" s="8">
+        <v>0.98860000000000003</v>
+      </c>
+      <c r="K18" s="8">
+        <v>0.8619</v>
+      </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -1433,17 +1499,25 @@
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
     </row>
-    <row r="19" spans="1:23" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="15">
+        <v>65.59</v>
+      </c>
+      <c r="H19" s="15">
+        <v>67.81</v>
+      </c>
+      <c r="I19" s="15">
+        <v>53.84</v>
+      </c>
+      <c r="J19" s="18">
+        <v>92.56</v>
+      </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1834,11 +1908,12 @@
       <c r="W34" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="F16:F19"/>
     <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="F4:F7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/日志/results.xlsx
+++ b/日志/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jumpycat\Desktop\00-YunshuDai\00-Similarity\日志\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34469A32-B451-4BBF-933B-812E6EA94C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBA9D64-F365-4D37-8BC5-B5066AF13DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1105,13 +1105,13 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="6.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" customWidth="1"/>
     <col min="7" max="9" width="23.875" style="1" customWidth="1"/>
@@ -1125,7 +1125,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1135,7 +1135,9 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="K2" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1168,9 +1170,6 @@
       <c r="J3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="9" t="s">
-        <v>33</v>
-      </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1374,7 +1373,9 @@
       <c r="J14" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="K14" s="27"/>
+      <c r="K14" s="28" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F15" s="25"/>
@@ -1389,9 +1390,6 @@
       </c>
       <c r="J15" s="14">
         <v>51.47</v>
-      </c>
-      <c r="K15" s="28" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">

--- a/日志/results.xlsx
+++ b/日志/results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jumpycat\Desktop\00-YunshuDai\00-Similarity\日志\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBA9D64-F365-4D37-8BC5-B5066AF13DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246FC92B-F083-4E67-B698-3F5E50991523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>DF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -544,6 +544,22 @@
   </si>
   <si>
     <t>跨库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FaceShifter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72.88(0.999)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>73.03(0.913)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92.06(0.965)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -725,7 +741,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -787,32 +803,35 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1105,27 +1124,30 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9" style="1"/>
+    <col min="1" max="1" width="9.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" customWidth="1"/>
     <col min="7" max="9" width="23.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="66.875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="10" max="10" width="34.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="21" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:23" s="30" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1134,10 +1156,10 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="K2" s="9"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1170,7 +1192,9 @@
       <c r="J3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="2"/>
+      <c r="L3" s="22" t="s">
+        <v>38</v>
+      </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1184,7 +1208,7 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="28" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="11" t="s">
@@ -1199,12 +1223,13 @@
       <c r="J4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="25">
         <v>72.11</v>
       </c>
+      <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="24"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="19"/>
       <c r="H5" s="19" t="s">
         <v>14</v>
@@ -1215,30 +1240,36 @@
       <c r="J5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="27">
+      <c r="K5" s="23">
         <v>79.930000000000007</v>
       </c>
+      <c r="L5" s="8" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F6" s="24"/>
-      <c r="G6" s="22">
+      <c r="F6" s="26"/>
+      <c r="G6" s="21">
         <v>0.99980000000000002</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="21">
         <v>0.97409999999999997</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="21">
         <v>0.54710000000000003</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="21">
         <v>0.98270000000000002</v>
       </c>
       <c r="K6" s="8">
         <v>0.87590000000000001</v>
       </c>
+      <c r="L6" s="8">
+        <v>0.78879999999999995</v>
+      </c>
     </row>
     <row r="7" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F7" s="25"/>
+      <c r="F7" s="27"/>
       <c r="G7" s="16">
         <v>98.47</v>
       </c>
@@ -1251,10 +1282,11 @@
       <c r="J7" s="14">
         <v>56.13</v>
       </c>
-      <c r="K7" s="27"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="26" t="s">
         <v>2</v>
       </c>
       <c r="G8" s="10" t="s">
@@ -1269,12 +1301,13 @@
       <c r="J8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="23">
         <v>63.47</v>
       </c>
+      <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F9" s="24"/>
+      <c r="F9" s="26"/>
       <c r="G9" s="19" t="s">
         <v>8</v>
       </c>
@@ -1285,12 +1318,13 @@
       <c r="J9" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="27">
+      <c r="K9" s="23">
         <v>87.97</v>
       </c>
+      <c r="L9" s="8"/>
     </row>
     <row r="10" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F10" s="24"/>
+      <c r="F10" s="26"/>
       <c r="G10" s="8">
         <v>0.99350000000000005</v>
       </c>
@@ -1306,9 +1340,10 @@
       <c r="K10" s="8">
         <v>0.94930000000000003</v>
       </c>
+      <c r="L10" s="8"/>
     </row>
     <row r="11" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F11" s="25"/>
+      <c r="F11" s="27"/>
       <c r="G11" s="13">
         <v>51.78</v>
       </c>
@@ -1321,10 +1356,11 @@
       <c r="J11" s="13">
         <v>52.19</v>
       </c>
-      <c r="K11" s="27"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="8"/>
     </row>
     <row r="12" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="28" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="11" t="s">
@@ -1339,12 +1375,13 @@
       <c r="J12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="27">
+      <c r="K12" s="23">
         <v>62.63</v>
       </c>
+      <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F13" s="26"/>
+      <c r="F13" s="29"/>
       <c r="G13" s="19" t="s">
         <v>10</v>
       </c>
@@ -1355,12 +1392,13 @@
       <c r="J13" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="27">
+      <c r="K13" s="23">
         <v>83.32</v>
       </c>
+      <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F14" s="26"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="8">
         <v>0.86319999999999997</v>
       </c>
@@ -1370,15 +1408,16 @@
       <c r="I14" s="8">
         <v>0.98870000000000002</v>
       </c>
-      <c r="J14" s="28" t="s">
+      <c r="J14" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="K14" s="28" t="s">
+      <c r="K14" s="24" t="s">
         <v>35</v>
       </c>
+      <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F15" s="25"/>
+      <c r="F15" s="27"/>
       <c r="G15" s="14">
         <v>47.97</v>
       </c>
@@ -1391,6 +1430,7 @@
       <c r="J15" s="14">
         <v>51.47</v>
       </c>
+      <c r="L15" s="8"/>
     </row>
     <row r="16" spans="1:23" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
@@ -1398,7 +1438,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="28" t="s">
         <v>3</v>
       </c>
       <c r="G16" s="5" t="s">
@@ -1413,10 +1453,12 @@
       <c r="J16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K16" s="27">
+      <c r="K16" s="23">
         <v>69.84</v>
       </c>
-      <c r="L16" s="2"/>
+      <c r="L16" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -1435,7 +1477,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="26"/>
+      <c r="F17" s="29"/>
       <c r="G17" s="20" t="s">
         <v>12</v>
       </c>
@@ -1446,10 +1488,12 @@
         <v>32</v>
       </c>
       <c r="J17" s="20"/>
-      <c r="K17" s="27">
+      <c r="K17" s="23">
         <v>78.17</v>
       </c>
-      <c r="L17" s="2"/>
+      <c r="L17" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -1468,7 +1512,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="26"/>
+      <c r="F18" s="29"/>
       <c r="G18" s="8">
         <v>0.9819</v>
       </c>
@@ -1484,7 +1528,9 @@
       <c r="K18" s="8">
         <v>0.8619</v>
       </c>
-      <c r="L18" s="2"/>
+      <c r="L18" s="8">
+        <v>0.97019999999999995</v>
+      </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -1503,7 +1549,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="26"/>
+      <c r="F19" s="29"/>
       <c r="G19" s="15">
         <v>65.59</v>
       </c>
@@ -1517,7 +1563,6 @@
         <v>92.56</v>
       </c>
       <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>

--- a/日志/results.xlsx
+++ b/日志/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jumpycat\Desktop\00-YunshuDai\00-Similarity\日志\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246FC92B-F083-4E67-B698-3F5E50991523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367B7969-A9B0-486C-8CD4-276D2EB88F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>DF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -560,6 +560,11 @@
   </si>
   <si>
     <t>92.06(0.965)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPE-2
+efficientB0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -741,7 +746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -821,6 +826,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -831,6 +845,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1121,10 +1144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W34"/>
+  <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1132,7 +1155,7 @@
     <col min="1" max="1" width="9.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="4.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" customWidth="1"/>
     <col min="7" max="9" width="23.875" style="1" customWidth="1"/>
@@ -1142,8 +1165,8 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="30" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:23" s="33" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="33" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1208,7 +1231,7 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="31" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="11" t="s">
@@ -1229,7 +1252,7 @@
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="26"/>
+      <c r="F5" s="29"/>
       <c r="G5" s="19"/>
       <c r="H5" s="19" t="s">
         <v>14</v>
@@ -1248,7 +1271,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F6" s="26"/>
+      <c r="F6" s="29"/>
       <c r="G6" s="21">
         <v>0.99980000000000002</v>
       </c>
@@ -1269,7 +1292,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F7" s="27"/>
+      <c r="F7" s="30"/>
       <c r="G7" s="16">
         <v>98.47</v>
       </c>
@@ -1286,7 +1309,7 @@
       <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="29" t="s">
         <v>2</v>
       </c>
       <c r="G8" s="10" t="s">
@@ -1307,7 +1330,7 @@
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F9" s="26"/>
+      <c r="F9" s="29"/>
       <c r="G9" s="19" t="s">
         <v>8</v>
       </c>
@@ -1324,7 +1347,7 @@
       <c r="L9" s="8"/>
     </row>
     <row r="10" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F10" s="26"/>
+      <c r="F10" s="29"/>
       <c r="G10" s="8">
         <v>0.99350000000000005</v>
       </c>
@@ -1343,7 +1366,7 @@
       <c r="L10" s="8"/>
     </row>
     <row r="11" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F11" s="27"/>
+      <c r="F11" s="30"/>
       <c r="G11" s="13">
         <v>51.78</v>
       </c>
@@ -1360,7 +1383,7 @@
       <c r="L11" s="8"/>
     </row>
     <row r="12" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="31" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="11" t="s">
@@ -1381,7 +1404,7 @@
       <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F13" s="29"/>
+      <c r="F13" s="32"/>
       <c r="G13" s="19" t="s">
         <v>10</v>
       </c>
@@ -1398,7 +1421,7 @@
       <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F14" s="29"/>
+      <c r="F14" s="32"/>
       <c r="G14" s="8">
         <v>0.86319999999999997</v>
       </c>
@@ -1417,7 +1440,7 @@
       <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F15" s="27"/>
+      <c r="F15" s="30"/>
       <c r="G15" s="14">
         <v>47.97</v>
       </c>
@@ -1438,7 +1461,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="31" t="s">
         <v>3</v>
       </c>
       <c r="G16" s="5" t="s">
@@ -1477,7 +1500,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="29"/>
+      <c r="F17" s="32"/>
       <c r="G17" s="20" t="s">
         <v>12</v>
       </c>
@@ -1512,7 +1535,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="29"/>
+      <c r="F18" s="32"/>
       <c r="G18" s="8">
         <v>0.9819</v>
       </c>
@@ -1549,7 +1572,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="29"/>
+      <c r="F19" s="32"/>
       <c r="G19" s="15">
         <v>65.59</v>
       </c>
@@ -1600,17 +1623,29 @@
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
     </row>
-    <row r="21" spans="1:23" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="D21" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="F21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="28" t="s">
+        <v>3</v>
+      </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -1625,17 +1660,19 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" spans="1:23" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="F22" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -1650,17 +1687,19 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
     </row>
-    <row r="23" spans="1:23" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+      <c r="F23" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -1675,17 +1714,19 @@
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
     </row>
-    <row r="24" spans="1:23" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
+      <c r="F24" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -1700,17 +1741,17 @@
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
     </row>
-    <row r="25" spans="1:23" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -1725,7 +1766,7 @@
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
     </row>
-    <row r="26" spans="1:23" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" ht="66.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1750,7 +1791,7 @@
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1775,7 +1816,7 @@
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1800,7 +1841,7 @@
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1825,7 +1866,7 @@
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1850,7 +1891,7 @@
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1875,7 +1916,7 @@
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1900,7 +1941,7 @@
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1925,7 +1966,7 @@
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1950,6 +1991,7 @@
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
     </row>
+    <row r="35" spans="1:23" ht="66.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="F8:F11"/>

--- a/日志/results.xlsx
+++ b/日志/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jumpycat\Desktop\00-YunshuDai\00-Similarity\日志\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367B7969-A9B0-486C-8CD4-276D2EB88F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45351E82-25D0-49E9-8D95-AB1DAA690357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="86">
   <si>
     <t>DF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,11 +40,6 @@
   </si>
   <si>
     <t>NT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TYPE-1
-resnet18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -563,8 +558,193 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0.8463(70.58/0.999)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5399(0.511/0.999)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7239(59.88/0.999)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5420(52.30/0.999)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6621(0.5648/0.999)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4742(0.5066/0.848)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>TYPE-2
-efficientB0</t>
+efficientB0
+C23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8502(77.68/0.999)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7209(65.64/0.999)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4968(49.92/0.823)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四方位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPE-2
+efficientB0
+raw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPE-2
+efficientB0
+c23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八方位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPE-1
+RESNET18
+C23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二方位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPE-1
+resnet18
+raw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9962(98.48/0.869)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6400(56.74/0.999)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.43066(48.56/0.8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7275(66.54/0.999)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7849(71.34/0.965)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5906(56.75/0.983)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7831(72.94/0.962)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F2F(4)√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FS(2)√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NT(3)√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8117(73.5/0.977)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5936(57.19/0.98)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7362(67.5/0.977)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9883(97.9/0.8737)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9984(0.9826/0.979)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7533(0.6374/0.999)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9602(0.9148/0.996)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F2F√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8436(0.7916/0.999)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9933(99.04/0.914)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9493(88.74/0.985)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9993(99.38/0.826)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8137(75.04/0.998)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7881(68.42/0.999)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5944(51.76/0.999)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6617(0.5854/0.999)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9859(097.42/0.814)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,7 +752,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -674,6 +854,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -746,7 +932,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -826,35 +1012,50 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1144,10 +1345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="D27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1161,13 +1362,16 @@
     <col min="7" max="9" width="23.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="34.25" style="1" customWidth="1"/>
     <col min="11" max="11" width="13" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.875" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="12" max="12" width="14.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.25" style="1" customWidth="1"/>
+    <col min="14" max="17" width="20.375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="17.25" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="33" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
-        <v>37</v>
+    <row r="1" spans="1:23" s="32" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="32" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1180,7 +1384,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="2"/>
@@ -1198,10 +1402,13 @@
     </row>
     <row r="3" spans="1:23" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>0</v>
@@ -1216,7 +1423,7 @@
         <v>3</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1230,48 +1437,48 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="31" t="s">
+    <row r="4" spans="1:23" s="7" customFormat="1" ht="42.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="30" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K4" s="25">
         <v>72.11</v>
       </c>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="29"/>
+    <row r="5" spans="1:23" s="7" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="28"/>
       <c r="G5" s="19"/>
       <c r="H5" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K5" s="23">
         <v>79.930000000000007</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F6" s="29"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" s="7" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="28"/>
       <c r="G6" s="21">
         <v>0.99980000000000002</v>
       </c>
@@ -1291,8 +1498,8 @@
         <v>0.78879999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F7" s="30"/>
+    <row r="7" spans="1:23" s="7" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="29"/>
       <c r="G7" s="16">
         <v>98.47</v>
       </c>
@@ -1308,46 +1515,46 @@
       <c r="K7" s="23"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="F8" s="29" t="s">
+    <row r="8" spans="1:23" s="7" customFormat="1" ht="42.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="28" t="s">
         <v>2</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K8" s="23">
         <v>63.47</v>
       </c>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F9" s="29"/>
+    <row r="9" spans="1:23" s="7" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F9" s="28"/>
       <c r="G9" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K9" s="23">
         <v>87.97</v>
       </c>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F10" s="29"/>
+    <row r="10" spans="1:23" s="7" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F10" s="28"/>
       <c r="G10" s="8">
         <v>0.99350000000000005</v>
       </c>
@@ -1365,8 +1572,8 @@
       </c>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F11" s="30"/>
+    <row r="11" spans="1:23" s="7" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="29"/>
       <c r="G11" s="13">
         <v>51.78</v>
       </c>
@@ -1382,46 +1589,46 @@
       <c r="K11" s="23"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="F12" s="31" t="s">
+    <row r="12" spans="1:23" s="7" customFormat="1" ht="42.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="30" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K12" s="23">
         <v>62.63</v>
       </c>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F13" s="32"/>
+    <row r="13" spans="1:23" s="7" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F13" s="31"/>
       <c r="G13" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I13" s="19"/>
       <c r="J13" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13" s="23">
         <v>83.32</v>
       </c>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F14" s="32"/>
+    <row r="14" spans="1:23" s="7" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F14" s="31"/>
       <c r="G14" s="8">
         <v>0.86319999999999997</v>
       </c>
@@ -1432,15 +1639,15 @@
         <v>0.98870000000000002</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" spans="1:23" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F15" s="30"/>
+    <row r="15" spans="1:23" s="7" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="29"/>
       <c r="G15" s="14">
         <v>47.97</v>
       </c>
@@ -1455,32 +1662,32 @@
       </c>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="1:23" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="42.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="30" t="s">
         <v>3</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K16" s="23">
         <v>69.84</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -1494,28 +1701,28 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
     </row>
-    <row r="17" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="32"/>
+      <c r="F17" s="31"/>
       <c r="G17" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I17" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="23">
         <v>78.17</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1529,13 +1736,13 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
     </row>
-    <row r="18" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="32"/>
+      <c r="F18" s="31"/>
       <c r="G18" s="8">
         <v>0.9819</v>
       </c>
@@ -1566,13 +1773,13 @@
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
     </row>
-    <row r="19" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="32"/>
+      <c r="F19" s="31"/>
       <c r="G19" s="15">
         <v>65.59</v>
       </c>
@@ -1604,11 +1811,6 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -1628,31 +1830,47 @@
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="F21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="H21" s="28" t="s">
+      <c r="H21" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="I21" s="28" t="s">
+      <c r="I21" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="J21" s="28" t="s">
+      <c r="J21" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
+      <c r="K21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="O21" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="P21" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="27" t="s">
+        <v>3</v>
+      </c>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
@@ -1666,20 +1884,18 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
@@ -1694,19 +1910,35 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
+        <v>2</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
+      <c r="M23" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q23" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
@@ -1721,19 +1953,27 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
+        <v>1</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33" t="s">
+        <v>46</v>
+      </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
+      <c r="M24" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
@@ -1747,18 +1987,28 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
+      <c r="F25" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="J25" s="35"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
+      <c r="M25" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
@@ -1791,24 +2041,52 @@
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
     </row>
-    <row r="27" spans="1:23" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
+      <c r="D27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N27" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="O27" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="P27" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="27" t="s">
+        <v>3</v>
+      </c>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
@@ -1816,24 +2094,24 @@
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
     </row>
-    <row r="28" spans="1:23" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
@@ -1841,24 +2119,42 @@
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
     </row>
-    <row r="29" spans="1:23" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
+      <c r="F29" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>75</v>
+      </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
+      <c r="M29" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q29" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
@@ -1866,24 +2162,36 @@
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
     </row>
-    <row r="30" spans="1:23" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
+      <c r="F30" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="I30" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="J30" s="33" t="s">
+        <v>81</v>
+      </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
+      <c r="M30" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
@@ -1891,24 +2199,28 @@
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
     </row>
-    <row r="31" spans="1:23" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
+      <c r="F31" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
+      <c r="M31" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
@@ -1916,7 +2228,7 @@
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
     </row>
-    <row r="32" spans="1:23" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" ht="66.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1941,17 +2253,31 @@
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
     </row>
-    <row r="33" spans="1:23" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
+      <c r="D33" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="I33" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33" s="27" t="s">
+        <v>3</v>
+      </c>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -1966,32 +2292,158 @@
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
     </row>
-    <row r="34" spans="1:23" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+    <row r="34" spans="1:23" ht="42.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-    </row>
-    <row r="35" spans="1:23" ht="66.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="F34" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="H34" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="I34" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="J34" s="39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+    </row>
+    <row r="36" spans="1:23" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="I36" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+    </row>
+    <row r="38" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:23" ht="54.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="I39" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="J39" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+    </row>
+    <row r="41" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+    </row>
+    <row r="43" spans="1:23" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+    </row>
+    <row r="44" spans="1:23" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="F8:F11"/>
